--- a/etudes diverses/dimensionnement batterie.xlsx
+++ b/etudes diverses/dimensionnement batterie.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Dropbox\Projet M1\etudes diverses\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre-yves\Dropbox\Projet M1\etudes diverses\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Dimensionnement de la batterie Robot r2d2</t>
   </si>
@@ -75,6 +75,24 @@
   </si>
   <si>
     <t>100 mA</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>=&gt;batterie externe choisie :http://www.amazon.fr/EC-Technology-22400mAh-Smartphones-Tablettes/dp/B00P64LAYA/ref=sr_1_4?ie=UTF8&amp;qid=1452009176&amp;sr=8-4&amp;keywords=batterie+externe+t%C3%A9l%C3%A9phone#productDetails</t>
+  </si>
+  <si>
+    <t>210mA/h pour la green - 450mA/h pour la black</t>
+  </si>
+  <si>
+    <t>+/- 1900mA/h max</t>
+  </si>
+  <si>
+    <t>=&gt; fonctionnement sécurité 4000mA/h ?</t>
+  </si>
+  <si>
+    <t>+/-25mA/h</t>
   </si>
 </sst>
 </file>
@@ -114,7 +132,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -137,17 +155,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,24 +463,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
-    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -453,13 +489,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -467,7 +505,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -475,7 +513,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
@@ -483,7 +521,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -491,13 +529,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
@@ -505,7 +545,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -513,61 +553,71 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/etudes diverses/dimensionnement batterie.xlsx
+++ b/etudes diverses/dimensionnement batterie.xlsx
@@ -65,9 +65,6 @@
     <t>2,5 A/h en bloqué / 500 mA/h en charge</t>
   </si>
   <si>
-    <t>40-50 mA/h</t>
-  </si>
-  <si>
     <t>240 mA + carte : 3 mA</t>
   </si>
   <si>
@@ -86,13 +83,16 @@
     <t>210mA/h pour la green - 450mA/h pour la black</t>
   </si>
   <si>
-    <t>+/- 1900mA/h max</t>
-  </si>
-  <si>
     <t>=&gt; fonctionnement sécurité 4000mA/h ?</t>
   </si>
   <si>
     <t>+/-25mA/h</t>
+  </si>
+  <si>
+    <t>250 mA/h</t>
+  </si>
+  <si>
+    <t>+/- 2150mA/h max</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -518,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -526,7 +526,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -534,7 +534,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -542,7 +542,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -559,20 +559,20 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
